--- a/Plancheck/check_protocol/STEC foie3F.xlsx
+++ b/Plancheck/check_protocol/STEC foie3F.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="5400"/>
   </bookViews>
   <sheets>
     <sheet name="General data" sheetId="1" r:id="rId1"/>
@@ -1573,8 +1573,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2241,7 @@
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>

--- a/Plancheck/check_protocol/STEC foie3F.xlsx
+++ b/Plancheck/check_protocol/STEC foie3F.xlsx
@@ -1574,7 +1574,7 @@
   <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
